--- a/data/income_statement/2digits/size/01_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/01_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>01-Crop and animal production, hunting and related service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>01-Crop and animal production, hunting and related service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,872 +841,987 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1161757.22359</v>
+        <v>1091145.86813</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1468552.12789</v>
+        <v>1412239.32139</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1798698.76132</v>
+        <v>1660145.92376</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2360449.89885</v>
+        <v>2135910.79155</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2430930.17408</v>
+        <v>2104284.61461</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3968550.34118</v>
+        <v>3618093.31925</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4607286.77839</v>
+        <v>4185461.0387</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>4654190.46457</v>
+        <v>5338822.309</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>8205697.801650001</v>
+        <v>7573069.02829</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>7985060.78772</v>
+        <v>7273264.92687</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>11432928.83604</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>10836056.21689</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>13492653.867</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>538142.54337</v>
+        <v>475431.7301200001</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>761702.4051100001</v>
+        <v>712131.28546</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1120089.5901</v>
+        <v>988547.4345600001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1529345.31141</v>
+        <v>1325814.4516</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1487197.14471</v>
+        <v>1253789.81992</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2679760.94194</v>
+        <v>2355512.7474</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3149655.26717</v>
+        <v>2763825.36887</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>3917438.353570001</v>
+        <v>3956091.68745</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>6830778.514559999</v>
+        <v>6243556.729030001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>5596481.333</v>
+        <v>4958000.23692</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>7544206.752210001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>7028009.52981</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>9817343.818</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>599400.8314799999</v>
+        <v>595781.93884</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>687421.61119</v>
+        <v>682624.9003099999</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>645483.9924099999</v>
+        <v>644556.81207</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>785038.5343200001</v>
+        <v>773593.8284700001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>892500.16763</v>
+        <v>818215.72905</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1235794.09437</v>
+        <v>1228299.43401</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1390685.12116</v>
+        <v>1380518.93837</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>668901.07028</v>
+        <v>1330468.14029</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>1250782.69251</v>
+        <v>1240056.77827</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2261359.75723</v>
+        <v>2217066.46729</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3716130.51357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3681714.62891</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3504705.801</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>24213.84874</v>
+        <v>19932.19917</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>19428.11159</v>
+        <v>17483.13562</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>33125.17881</v>
+        <v>27041.67713</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>46066.05312</v>
+        <v>36502.51147999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>51232.86173999999</v>
+        <v>32279.06564</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>52995.30487</v>
+        <v>34281.13784</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>66946.39005999999</v>
+        <v>41116.73146</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>67851.04072</v>
+        <v>52262.48126</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>124136.59458</v>
+        <v>89455.52099</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>127219.69749</v>
+        <v>98198.22266</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>172591.57026</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>126332.05817</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>170604.248</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>16485.54418</v>
+        <v>16247.02522</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>16835.50626</v>
+        <v>16588.32324</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>25204.42398</v>
+        <v>24793.51244</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>45555.18098</v>
+        <v>43516.53223</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>43681.51967</v>
+        <v>39604.72275</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>113927.96917</v>
+        <v>104145.98459</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>103925.19512</v>
+        <v>96834.55904000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>95107.61292</v>
+        <v>136768.62024</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>186647.33437</v>
+        <v>176504.92828</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>203735.26098</v>
+        <v>171490.7944</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>267500.36683</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>246135.13607</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>428753.743</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>2597.50765</v>
+        <v>2426.66805</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1779.57995</v>
+        <v>1620.60687</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1428.65762</v>
+        <v>1292.90312</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>8917.88422</v>
+        <v>8526.845039999998</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>9606.305829999999</v>
+        <v>7534.392779999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>47058.61487</v>
+        <v>41809.70523000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>29621.25229</v>
+        <v>25445.1108</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>19884.87087</v>
+        <v>22144.09934</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>50722.0329</v>
+        <v>43499.03036</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>64047.28483</v>
+        <v>53309.95279</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>88451.04120000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>71574.67572</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>86008.59699999999</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>10089.58688</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>10917.57618</v>
+        <v>10917.50239</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>18937.84076</v>
+        <v>18859.39245</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>30431.04517</v>
+        <v>29369.2688</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>26993.2216</v>
+        <v>25620.83126</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>60013.67617</v>
+        <v>57063.19334000001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>68479.39823999999</v>
+        <v>65900.34400000001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>70764.64579000001</v>
+        <v>107454.00425</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>123174.32071</v>
+        <v>121129.39531</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>117786.32093</v>
+        <v>96534.42431</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>145298.78365</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>141206.08626</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>303990.395</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>3798.44965</v>
+        <v>3730.77029</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>4138.35013</v>
+        <v>4050.21398</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>4837.9256</v>
+        <v>4641.216869999999</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>6206.251590000001</v>
+        <v>5620.41839</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>7081.99224</v>
+        <v>6449.49871</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>6855.678130000001</v>
+        <v>5273.086020000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>5824.54459</v>
+        <v>5489.104240000001</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>4458.096259999999</v>
+        <v>7170.51665</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>12750.98076</v>
+        <v>11876.50261</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>21901.65522</v>
+        <v>21646.4173</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>33750.54197999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>33354.37409</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>38754.751</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1145271.67941</v>
+        <v>1074898.84291</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1451716.62163</v>
+        <v>1395650.99815</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1773494.33734</v>
+        <v>1635352.41132</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2314894.71787</v>
+        <v>2092394.25932</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2387248.65441</v>
+        <v>2064679.89186</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3854622.37201</v>
+        <v>3513947.33466</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4503361.58327</v>
+        <v>4088626.47966</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>4559082.85165</v>
+        <v>5202053.688759999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>8019050.46728</v>
+        <v>7396564.10001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>7781325.52674</v>
+        <v>7101774.132470001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>11165428.46921</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>10589921.08082</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>13063900.124</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>875664.2093299999</v>
+        <v>818759.95498</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1089994.69722</v>
+        <v>1037983.72422</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1369717.05743</v>
+        <v>1253935.93538</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1817522.42909</v>
+        <v>1616425.58097</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1935943.44663</v>
+        <v>1666590.31652</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3245101.60594</v>
+        <v>2971562.85222</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3748264.68599</v>
+        <v>3419773.14341</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3949157.05499</v>
+        <v>4370148.98317</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>6583682.98175</v>
+        <v>6069871.18024</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>6210321.22971</v>
+        <v>5738910.3135</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>8792619.755280001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>8373876.96337</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>10447153.159</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>776226.04024</v>
+        <v>728433.24571</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>988875.78772</v>
+        <v>955566.0232800001</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1140901.41348</v>
+        <v>1077454.17022</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1476007.33491</v>
+        <v>1315421.28015</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1667339.10564</v>
+        <v>1443748.02199</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2336271.88859</v>
+        <v>2111470.84834</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2836117.14986</v>
+        <v>2574967.82067</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2681977.94607</v>
+        <v>3076178.8199</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>4395298.00026</v>
+        <v>4020986.19345</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>4457310.21076</v>
+        <v>4098931.097169999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>5955266.37354</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5685355.513799999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>7322525.229</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>47166.73822</v>
+        <v>42636.56811</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>67162.93986000001</v>
+        <v>53837.86335</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>185703.73492</v>
+        <v>141829.44437</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>286188.82306</v>
+        <v>270686.93626</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>230601.8779</v>
+        <v>187905.822</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>843955.93562</v>
+        <v>813583.07227</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>798650.07843</v>
+        <v>751185.82555</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1062005.52068</v>
+        <v>1075766.79765</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2028607.44229</v>
+        <v>1930954.77692</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1574361.97986</v>
+        <v>1491886.67055</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2597508.55085</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2477553.33097</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2818821.292</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>44587.86729</v>
+        <v>40183.24121</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>25811.04599</v>
+        <v>20434.91394</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>33906.33602</v>
+        <v>25615.57623</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>45568.37063</v>
+        <v>22500.18423</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>22374.0645</v>
+        <v>21857.91262</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>32634.09515</v>
+        <v>32312.31083</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>79750.27441</v>
+        <v>67860.74021999999</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>64511.29904999999</v>
+        <v>86070.78095999999</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>111782.27838</v>
+        <v>75725.77801000001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>144468.07198</v>
+        <v>126765.85996</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>199756.47787</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>192178.39347</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>278073.142</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>7683.56358</v>
+        <v>7506.899949999999</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>8144.923650000001</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>9205.57301</v>
+        <v>9036.744560000001</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>9757.90049</v>
+        <v>7817.180330000001</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>15628.39859</v>
+        <v>13078.55991</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>32239.68658</v>
+        <v>14196.62078</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>33747.18329</v>
+        <v>25758.75697</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>140662.28919</v>
+        <v>132132.58466</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>47995.26082</v>
+        <v>42204.43185999999</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>34180.96711</v>
+        <v>21326.68582</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>40088.35302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>18789.72513</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>27733.496</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>269607.47008</v>
+        <v>256138.88793</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>361721.92441</v>
+        <v>357667.2739300001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>403777.27991</v>
+        <v>381416.47594</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>497372.2887799999</v>
+        <v>475968.6783499999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>451305.20778</v>
+        <v>398089.57534</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>609520.76607</v>
+        <v>542384.4824400001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>755096.8972799999</v>
+        <v>668853.3362499999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>609925.7966600001</v>
+        <v>831904.70559</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1435367.48553</v>
+        <v>1326692.91977</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1571004.29703</v>
+        <v>1362863.81897</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2372808.71393</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2216044.11745</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2616746.965</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>164751.61447</v>
+        <v>152398.3212</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>174067.76658</v>
+        <v>163138.93255</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>216633.15571</v>
+        <v>196157.03391</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>245760.88081</v>
+        <v>220142.90347</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>258921.82904</v>
+        <v>227800.03277</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>349314.24121</v>
+        <v>312959.5056499999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>434910.0107999999</v>
+        <v>389084.77443</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>425859.61102</v>
+        <v>441617.86821</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>686291.41246</v>
+        <v>586888.5206800001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>736713.0243</v>
+        <v>641652.4439200001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>925340.5588299999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>855814.1275800001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1126276.718</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>15.09175</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>186.93549</v>
+        <v>174.46463</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1283.37185</v>
+        <v>929.1053200000001</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1412.44989</v>
+        <v>1154.37389</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1066.94388</v>
+        <v>680.05484</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>2817.45865</v>
+        <v>1440.92345</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>4887.3734</v>
+        <v>2901.45642</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>8652.420400000001</v>
+        <v>3314.26406</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>11096.3248</v>
+        <v>4553.999110000001</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>22965.59326</v>
+        <v>17180.83263</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>27641.42649</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>25047.2845</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>54943.702</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>31963.17908</v>
+        <v>26341.82527</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>33349.61702</v>
+        <v>28549.83285</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>42838.45936</v>
+        <v>40038.83966</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>56364.66504</v>
+        <v>51912.61738</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>58617.78072</v>
+        <v>50401.22707999999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>106413.78059</v>
+        <v>97198.26297</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>134054.18311</v>
+        <v>120527.57125</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>131757.99953</v>
+        <v>154190.00067</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>257448.83151</v>
+        <v>228742.78723</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>304582.9345</v>
+        <v>260213.41679</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>396866.8740700001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>385619.67915</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>488012.539</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>132773.34364</v>
+        <v>126041.40418</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>140531.21407</v>
+        <v>134414.63507</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>172511.3245</v>
+        <v>155189.08893</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>187983.76588</v>
+        <v>167075.9122</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>199237.10444</v>
+        <v>176718.75085</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>240083.00197</v>
+        <v>214320.31923</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>295968.45429</v>
+        <v>265655.74676</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>285449.19109</v>
+        <v>284113.60348</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>417746.25615</v>
+        <v>353591.73434</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>409164.49654</v>
+        <v>364258.1945</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>500832.25827</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>445147.16393</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>583320.477</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>104855.85561</v>
+        <v>103740.56673</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>187654.15783</v>
+        <v>194528.34138</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>187144.1242</v>
+        <v>185259.44203</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>251611.40797</v>
+        <v>255825.77488</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>192383.37874</v>
+        <v>170289.54257</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>260206.52486</v>
+        <v>229424.97679</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>320186.88648</v>
+        <v>279768.56182</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>184066.18564</v>
+        <v>390286.83738</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>749076.07307</v>
+        <v>739804.39909</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>834291.27273</v>
+        <v>721211.3750499999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1447468.1551</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1360229.98987</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1490470.247</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>102224.6831</v>
+        <v>88152.43556999999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>110348.05971</v>
+        <v>81340.43991999999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>143213.85842</v>
+        <v>100501.86127</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>249980.88995</v>
+        <v>190151.09018</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>191350.8281</v>
+        <v>135735.09067</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>282520.14876</v>
+        <v>204741.70141</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>335605.33548</v>
+        <v>218437.59142</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>466109.66435</v>
+        <v>395053.5725000001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>513978.6851</v>
+        <v>404051.36936</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>941410.50729</v>
+        <v>704465.87741</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1309520.06799</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1000204.15912</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>977200.322</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>1127.44484</v>
+        <v>584.2534300000001</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>1583.86787</v>
+        <v>10.50173</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>1577.38759</v>
+        <v>603.93906</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>12035.27086</v>
+        <v>2027.40931</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>14659.19835</v>
+        <v>14171.20109</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>43250.23476</v>
+        <v>32603.62551</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>46064.61121</v>
+        <v>3419.54182</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>19277.8042</v>
+        <v>4862.263400000001</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>22593.03107</v>
+        <v>114.35625</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>17098.82063</v>
+        <v>3423.29464</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>206543.37922</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>7374.049230000001</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>28344.245</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1817,19 +1833,19 @@
         <v>0</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>31654.92675</v>
+        <v>0</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>32650.59198</v>
+        <v>2976.7589</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>10654.63892</v>
+        <v>0</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>2894.14582</v>
+        <v>0.01635</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>109878.61022</v>
+        <v>104126.82335</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>76999.66002</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>4844.41762</v>
+        <v>3795.32735</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>5776.5813</v>
+        <v>3337.41659</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>6324.12969</v>
+        <v>3218.61212</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>8743.712459999999</v>
+        <v>3987.10119</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>4280.67839</v>
+        <v>2781.68637</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>7361.282410000001</v>
+        <v>4336.81647</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>21404.49864</v>
+        <v>10085.92664</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>37841.50490000001</v>
+        <v>17102.07814</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>55563.62102000001</v>
+        <v>46673.97742</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>55652.02549</v>
+        <v>42349.01208</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>73076.19568999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>57657.30343</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>50145.032</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1892,22 +1918,22 @@
         <v>0</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>33.44064</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1318.73909</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>3308.8593</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>522.44929</v>
+        <v>217.84079</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>494.901</v>
+        <v>292.08814</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>492.02846</v>
+        <v>403.64531</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>20.46073</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>2.84052</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>15.114</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1824.11573</v>
@@ -1934,34 +1965,39 @@
         <v>799.14088</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>943.4144299999999</v>
+        <v>908.42495</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>2072.08149</v>
+        <v>2058.12655</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1596.62193</v>
+        <v>1515.13493</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>3566.71093</v>
+        <v>3087.58245</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>6170.07409</v>
+        <v>4494.09429</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>8821.938769999999</v>
+        <v>2576.45841</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>4795.28242</v>
+        <v>1385.36954</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>3791.07435</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>3220.21592</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>4582.479</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>274.82616</v>
@@ -1970,76 +2006,86 @@
         <v>175.15942</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>288.4324099999999</v>
+        <v>239.44663</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>85.87978</v>
+        <v>31.08766</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>17.7105</v>
+        <v>13.78244</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>94.1789</v>
+        <v>11.22243</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1499.95165</v>
+        <v>145.17291</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>124.28132</v>
+        <v>52.82422999999999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>603.9981899999999</v>
+        <v>323.99566</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>240.0604</v>
+        <v>141.68188</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1776.5013</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1595.40633</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>251.028</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>66307.02678</v>
+        <v>55708.08538</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>70361.06200000001</v>
+        <v>47672.5317</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>87338.37689999999</v>
+        <v>52832.47251000001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>142605.13223</v>
+        <v>135212.53568</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>69203.59806999999</v>
+        <v>50703.16583999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>129787.72352</v>
+        <v>86210.01994</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>163410.94094</v>
+        <v>119948.80598</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>190437.74883</v>
+        <v>176373.95064</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>238744.30147</v>
+        <v>187289.35038</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>680557.53945</v>
+        <v>484227.48411</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>831670.60718</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>755692.28192</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>683790.2709999999</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>66.27055</v>
@@ -2063,22 +2109,27 @@
         <v>2064.54351</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>1107.88792</v>
+        <v>1595.53399</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>2087.63183</v>
+        <v>1994.89877</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>3105.39461</v>
+        <v>2749.85235</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>9226.25943</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>14974.512</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2099,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>4.347989999999999</v>
+        <v>0</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>0</v>
@@ -2113,131 +2164,151 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>27780.58142</v>
+        <v>25899.55697</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>31981.10726</v>
+        <v>29674.54862</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>46837.35596</v>
+        <v>42792.65572</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>52593.81435</v>
+        <v>47984.53139</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>65155.61023</v>
+        <v>59719.01039</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>88944.20885000001</v>
+        <v>79538.23116</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>94200.68379000001</v>
+        <v>79393.91362000001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>100779.72441</v>
+        <v>86042.35914999999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>107363.23422</v>
+        <v>86877.40394</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>120507.65956</v>
+        <v>110735.45808</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>183433.2103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>165435.80234</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>195097.641</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>105236.31222</v>
+        <v>89621.18957999999</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>56426.64272</v>
+        <v>35555.9209</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>118647.84037</v>
+        <v>49064.93925</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>143595.75084</v>
+        <v>134776.06086</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>126597.42487</v>
+        <v>70285.88780000001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>191287.69489</v>
+        <v>145367.4023</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>232835.98637</v>
+        <v>163757.56645</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>294677.13449</v>
+        <v>205460.2451</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>347153.85752</v>
+        <v>262223.98286</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>771523.33266</v>
+        <v>490836.84191</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1021150.83836</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>906917.85265</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>840024.897</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>155.84392</v>
+        <v>3.4946</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>509.51286</v>
+        <v>0.59185</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>835.45298</v>
+        <v>1.62845</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>3256.70907</v>
+        <v>3101.52634</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>5377.246779999999</v>
+        <v>4473.00866</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>4335.128310000001</v>
+        <v>3488.14351</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>4143.50821</v>
+        <v>3369.73378</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>6738.05908</v>
+        <v>6689.78008</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>7738.25404</v>
+        <v>7571.83853</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>12024.81809</v>
+        <v>0</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>5262.55602</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>56.30712</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>17613.208</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>4055.492520000001</v>
+        <v>3904.8775</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>3845.53455</v>
@@ -2246,34 +2317,39 @@
         <v>1638.03636</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>4238.816870000001</v>
+        <v>4223.29757</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>3922.99673</v>
+        <v>3498.05032</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>4126.914989999999</v>
+        <v>3583.0445</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>11790.93162</v>
+        <v>8262.337030000001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>8627.476429999999</v>
+        <v>8046.00632</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>22089.64843</v>
+        <v>19256.70431</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>18280.58188</v>
+        <v>14995.8464</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>27985.52472</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>27762.02566</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>11032.105</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2285,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>3.28507</v>
+        <v>0</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>0</v>
@@ -2294,64 +2370,74 @@
         <v>0</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>498.50199</v>
+        <v>0</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>79.54433999999999</v>
+        <v>0</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>0.01797</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>122.567</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>53389.1296</v>
+        <v>44693.07107</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>35069.81407</v>
+        <v>15024.33013</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>95037.41434999999</v>
+        <v>27585.80173</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>100085.0891</v>
+        <v>95370.80734</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>83314.895</v>
+        <v>31561.18557</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>112594.52409</v>
+        <v>69585.82930000001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>151772.39767</v>
+        <v>90348.66309</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>208784.42905</v>
+        <v>125738.92196</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>235136.89505</v>
+        <v>160331.32889</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>650382.6540499999</v>
+        <v>398441.31202</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>874294.3611400001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>770071.5533799999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>703469.458</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>68.78222</v>
@@ -2369,28 +2455,33 @@
         <v>80.41432</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>952.62562</v>
+        <v>952.6256200000001</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>1954.42565</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>1330.44068</v>
+        <v>2208.43429</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>2078.07337</v>
+        <v>1904.66507</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>8219.95953</v>
+        <v>5096.07651</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>16345.41658</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>10052.432</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2399,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>91.26826</v>
+        <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>47567.06396</v>
+        <v>40950.96419</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>16967.29433</v>
+        <v>16650.97746</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>21042.29693</v>
+        <v>19836.10122</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>36011.85073000001</v>
+        <v>32080.42961</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>33901.87204</v>
+        <v>30673.22893</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>69278.50188</v>
+        <v>67757.75937</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>62676.22123</v>
+        <v>59822.4069</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>69196.72925</v>
+        <v>62777.10245000001</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>80031.44229000001</v>
+        <v>73159.44605999999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>82615.31911</v>
+        <v>72303.60698000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>97262.96192999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>92682.54991</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>97735.12699999999</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>90501.16587000001</v>
+        <v>77869.86664000002</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>42610.22437</v>
+        <v>32084.87253</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>89961.46921000001</v>
+        <v>73783.82424</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>109930.33527</v>
+        <v>90460.36794999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>117312.27203</v>
+        <v>81674.10373999999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>261704.54346</v>
+        <v>204548.90554</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>327912.96881</v>
+        <v>242275.85341</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>281682.16946</v>
+        <v>339659.6485</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>444816.52036</v>
+        <v>391314.8035800001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>384171.0933</v>
+        <v>309586.30991</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>677337.2039600001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>590463.5848000001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>415753.11</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>79733.31668999999</v>
+        <v>77866.01775000001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>27612.41383</v>
+        <v>24744.08659</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>63544.52676</v>
+        <v>57787.1063</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>85998.93171999999</v>
+        <v>75266.92545000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>89445.66507999999</v>
+        <v>67904.21056000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>219351.5789</v>
+        <v>191378.44013</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>264693.57523</v>
+        <v>224081.04607</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>256068.19056</v>
+        <v>320703.74623</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>411139.05418</v>
+        <v>370624.8169799999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>376860.6659500001</v>
+        <v>302275.8825599999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>660673.0366100001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>586789.92241</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>409258.995</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>10767.84918</v>
+        <v>3.84889</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>14997.81054</v>
+        <v>7340.785940000001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>26416.94245</v>
+        <v>15996.71794</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>23931.40355</v>
+        <v>15193.4425</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>27866.60695</v>
+        <v>13769.89318</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>42352.96456</v>
+        <v>13170.46541</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>63219.39358</v>
+        <v>18194.80734</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>25613.9789</v>
+        <v>18955.90227</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>33677.46618</v>
+        <v>20689.9866</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>7310.427350000001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>16664.16735</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>3673.66239</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>6494.115</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>11343.06061999999</v>
+        <v>24401.94608</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>198965.35045</v>
+        <v>208227.98787</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>121748.67304</v>
+        <v>162912.53981</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>248066.21181</v>
+        <v>220740.43625</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>139824.50994</v>
+        <v>154064.6417</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>89734.43527000002</v>
+        <v>84250.37036</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>95043.26678000002</v>
+        <v>92172.73337999999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>73816.54603999999</v>
+        <v>240220.51628</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>471084.3802900001</v>
+        <v>490316.98201</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>620007.3540599999</v>
+        <v>625254.1006400001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1058500.18077</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>863052.7115399999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1211892.562</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>33189.75294</v>
+        <v>29275.34956</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>35927.37093</v>
+        <v>13129.43856</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>21877.78388</v>
+        <v>18579.71889</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>34675.25139</v>
+        <v>24009.88859</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>25823.72908</v>
+        <v>18639.77474</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>68937.36272</v>
+        <v>58462.07675</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>74278.46877000001</v>
+        <v>62484.6778</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>76650.97976</v>
+        <v>55618.10141</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>109243.81004</v>
+        <v>97198.94348</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>76891.70276</v>
+        <v>55840.77387</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>129587.16686</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>109548.42361</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>93405.727</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>168.45885</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>1396.29105</v>
+        <v>271.86985</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>1124.20966</v>
+        <v>827.27261</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>954.46414</v>
+        <v>611.4761500000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>256.57357</v>
+        <v>244.55587</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>245.54841</v>
+        <v>224.0939</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>246.29318</v>
+        <v>246.28721</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1664.27966</v>
+        <v>1653.57966</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>4107.040190000001</v>
+        <v>3734.33708</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>7693.00528</v>
+        <v>7684.038100000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>2650.3394</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1238.32474</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>4778.023</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>33021.29409</v>
+        <v>29106.89071</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>34531.07988</v>
+        <v>12857.56871</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>20753.57422</v>
+        <v>17752.44628</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>33720.78725</v>
+        <v>23398.41244</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>25567.15551</v>
+        <v>18395.21887</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>68691.81431</v>
+        <v>58237.98284999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>74032.17559</v>
+        <v>62238.39059</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>74986.70009999999</v>
+        <v>53964.52175</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>105136.76985</v>
+        <v>93464.6064</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>69198.69748</v>
+        <v>48156.73577</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>126936.82746</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>108310.09887</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>88627.704</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>37681.50602</v>
+        <v>30975.96032</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>34336.9206</v>
+        <v>30190.55679</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>59658.64823000001</v>
+        <v>50035.99168</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>67091.29128999999</v>
+        <v>52391.43430000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>66114.78092999999</v>
+        <v>49693.97725</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>128784.97701</v>
+        <v>102890.81436</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>91669.70097000001</v>
+        <v>61951.58298000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>97007.54048</v>
+        <v>60253.17261</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>93558.43242999999</v>
+        <v>69090.94138999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>104306.18223</v>
+        <v>71632.46530999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>129042.81258</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>103612.83656</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>95526.887</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>7301.9985</v>
+        <v>6644.179500000001</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>9932.94231</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>14548.474</v>
+        <v>13508.97714</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>16673.50608</v>
+        <v>16544.31146</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>14987.62142</v>
+        <v>13641.68384</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>25202.96797</v>
+        <v>22356.06884</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>22352.46332</v>
+        <v>17558.67722</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>20017.83886</v>
+        <v>17466.5047</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>31316.44149</v>
+        <v>23187.32893</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>22124.87193</v>
+        <v>14487.82005</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>16323.00219</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>15190.82081</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>17309.568</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>18864.67927</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>16653.72599</v>
+        <v>16651.76923</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>22807.33282</v>
+        <v>22752.98164</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>25981.69465</v>
+        <v>25932.3037</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>25114.69354</v>
+        <v>25041.43608</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>40474.43568000001</v>
+        <v>40288.81881000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>23288.48159</v>
+        <v>23088.20661</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>26071.79845</v>
+        <v>24446.6342</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>30248.89676</v>
+        <v>29659.75361</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>27165.80174</v>
+        <v>27151.70141000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>41406.00268</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>41404.58846</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>45310.101</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>11514.82825</v>
+        <v>5467.101549999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>7750.252300000001</v>
+        <v>3605.845249999999</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>22302.84141</v>
+        <v>13774.0329</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>24436.09056</v>
+        <v>9914.819140000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>26012.46597</v>
+        <v>11010.85733</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>63107.57336</v>
+        <v>40245.92671</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>46028.75605999999</v>
+        <v>21304.69915</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>50917.90317000001</v>
+        <v>18340.03371</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>31993.09418</v>
+        <v>16243.85885</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>55015.50855999999</v>
+        <v>29992.94385</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>71313.80770999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>47017.42729</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>32907.218</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>6851.307540000006</v>
+        <v>22701.33532000001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>200555.80078</v>
+        <v>191166.86964</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>83967.80868999999</v>
+        <v>131456.26702</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>215650.17191</v>
+        <v>192358.89054</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>99533.45809</v>
+        <v>123010.43919</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>29886.82098</v>
+        <v>39821.63275</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>77652.03457999998</v>
+        <v>92705.82819999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>53459.98532000002</v>
+        <v>235585.44508</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>486769.7579</v>
+        <v>518424.9841</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>592592.8745899999</v>
+        <v>609462.4092</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1059044.53505</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>868988.29859</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1209771.402</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>21711.52542</v>
+        <v>21709.43417</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>39021.18458</v>
+        <v>35880.58028</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>26814.10313</v>
+        <v>25647.57498</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>33491.6427</v>
+        <v>31068.48647</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>16293.30671</v>
+        <v>14665.42141</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>21088.40626</v>
+        <v>19557.38161</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>30657.10839</v>
+        <v>25285.03633</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>19284.59316</v>
+        <v>51169.81683</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>65125.41257000001</v>
+        <v>59622.58984</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>125036.76712</v>
+        <v>108735.68129</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>179402.96125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>171105.7903</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>259997.791</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-14860.21787999999</v>
+        <v>991.9011500000059</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>161534.6162</v>
+        <v>155286.28936</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>57153.70556</v>
+        <v>105808.69204</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>182158.52921</v>
+        <v>161290.40407</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>83240.15138</v>
+        <v>108345.01778</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>8798.414720000002</v>
+        <v>20264.25114000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>46994.92619</v>
+        <v>67420.79187</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>34175.39216</v>
+        <v>184415.62825</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>421644.34533</v>
+        <v>458802.39426</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>467556.10747</v>
+        <v>500726.72791</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>879641.5737999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>697882.5082899999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>949773.611</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D59" s="35" t="n">
+        <v>14</v>
+      </c>
+      <c r="E59" s="35" t="n">
+        <v>19</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>26</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>18</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>27</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>34</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>42</v>
+      </c>
+      <c r="K59" s="35" t="n">
+        <v>53</v>
+      </c>
+      <c r="L59" s="35" t="n">
         <v>25</v>
       </c>
-      <c r="E59" s="35" t="n">
-        <v>42</v>
-      </c>
-      <c r="F59" s="35" t="n">
-        <v>56</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>39</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>49</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>59</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>68</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>98</v>
-      </c>
-      <c r="L59" s="35" t="n">
-        <v>40</v>
-      </c>
       <c r="M59" s="35" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>34</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>